--- a/data/trans_orig/P78C9_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C9_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57385494-56E5-4540-9878-19A74BE1C1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E48A7F-0D34-40CC-A25C-5AAC3F2072E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED7E2D57-0122-429E-85C2-376C1A515F47}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D64EEFFB-25A7-480E-A880-887BB1BEE7E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="35">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de las actividades extraescolares en 2023 (Tasa respuesta: 0,08%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,9 +77,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -101,13 +98,13 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -119,28 +116,28 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -555,8 +552,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BDC102-437A-4313-A5BA-C42FE4CD9E02}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2C9411-2CCE-459B-9A29-E3E0C241E550}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -823,30 +820,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>832</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>832</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -870,28 +871,32 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -913,35 +918,39 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>832</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>832</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -960,34 +969,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>908</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>945</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1009,34 +1018,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1058,85 +1067,87 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>945</v>
+        <v>1789</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>945</v>
+        <v>1789</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1187</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1146</v>
+        <v>741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1928</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1146</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1147,45 +1158,47 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1194,52 +1207,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1187</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>2089</v>
+        <v>741</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>2089</v>
+        <v>1928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1248,46 +1263,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>881</v>
+        <v>2482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>2087</v>
+        <v>3669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1302,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1350,214 +1365,58 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>881</v>
+        <v>3362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>2087</v>
+        <v>4549</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1206</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2972</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4178</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>943</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>943</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="7" t="s">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1206</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="7">
-        <v>6</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3915</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="7">
-        <v>7</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5121</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
